--- a/artfynd/A 33035-2020.xlsx
+++ b/artfynd/A 33035-2020.xlsx
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369129.1282951216</v>
+        <v>369129</v>
       </c>
       <c r="R2" t="n">
-        <v>6363254.737020355</v>
+        <v>6363255</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,19 +769,9 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
